--- a/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
+++ b/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,6 +540,48 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>25 f4 Address</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>25 f4 first</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25 f4 last</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>25 f4 city</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2544</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{{address}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
+++ b/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
@@ -582,6 +582,48 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>f5 address 25</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>f5 first 25</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>f5 last 25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>{{credit_debit_number}}</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>f5 city 25</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2505</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>250505</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
+++ b/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,9 +449,9 @@
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
@@ -624,6 +624,48 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>25 f Address</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>25 f1 first name</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{{mac_address}} last</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>{{mac_address}} City</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2525</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
+++ b/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="29" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="23" customWidth="1" min="3" max="3"/>
     <col width="22" customWidth="1" min="4" max="4"/>
@@ -666,6 +666,48 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Adrress 25 f1 @#$%^&amp;*!(#)#*</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>25 f1 first name</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25 f1 last name</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25012334567955</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>25 F1 City</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2501</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
+++ b/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -708,6 +708,48 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>25 f3 address</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>25 f3 firest</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25 f3 last</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>{{ip_address}}</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>25 city f3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
+++ b/Test Data Driven/AI-Generated/Common/completeCheckoutProcessWithShippingDetails.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,6 +750,48 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>25 f2 Address (2)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>25 f2 First (1)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25 F2 Last (4)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2502834949444</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>25 f2 City ( 3)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>250205</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
